--- a/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F45A3379-BE4A-4BC8-9A95-A8F4B109CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6789B1-4B94-4B11-8F59-6A27D1D6B13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9A9BBBB0-D1FB-4CCF-87C9-9D54D6F36E83}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AED9F01-E7F0-4DC2-99B1-27C966A42F44}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,19 +83,19 @@
     <t>93,05%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,19 +107,19 @@
     <t>6,95%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,22 +131,22 @@
     <t>85,37%</t>
   </si>
   <si>
-    <t>47,79%</t>
+    <t>46,78%</t>
   </si>
   <si>
     <t>91,39%</t>
   </si>
   <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>85,07%</t>
+    <t>85,56%</t>
   </si>
   <si>
     <t>94,21%</t>
@@ -155,16 +155,16 @@
     <t>14,63%</t>
   </si>
   <si>
-    <t>52,21%</t>
+    <t>53,22%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>9,36%</t>
@@ -173,7 +173,7 @@
     <t>5,79%</t>
   </si>
   <si>
-    <t>14,93%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -182,55 +182,55 @@
     <t>84,84%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>15,16%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -239,55 +239,55 @@
     <t>74,3%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -296,109 +296,109 @@
     <t>76,51%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>79,92%</t>
   </si>
   <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>86,28%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC18A8-594A-4DCB-AC63-2CC15EFA4244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32A06A2-B616-47EE-847E-61311536374D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6789B1-4B94-4B11-8F59-6A27D1D6B13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5768F4D-B6B4-4167-B22D-0DEDD5E49FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AED9F01-E7F0-4DC2-99B1-27C966A42F44}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{143F4062-F500-4DC1-83A0-49FF1C436F55}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,7 +125,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>85,37%</t>
@@ -176,7 +176,7 @@
     <t>14,44%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>84,84%</t>
@@ -233,7 +233,7 @@
     <t>14,13%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>74,3%</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32A06A2-B616-47EE-847E-61311536374D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A440D8-E6C6-4773-923A-3139DBCB58D7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5768F4D-B6B4-4167-B22D-0DEDD5E49FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6AD186A-F44B-4251-8CC9-0C3A9CD1B584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{143F4062-F500-4DC1-83A0-49FF1C436F55}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F404F3F1-B1A2-46E0-81D9-A947573AFDC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
-  <si>
-    <t>Población según si ha trabajado anteriormente en 2023 (Tasa respuesta: 13,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+  <si>
+    <t>Población según si la persona sustentadora principal ha trabajado anteriormente en 2023 (Tasa respuesta: 57,62%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,55 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,277 +134,283 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A440D8-E6C6-4773-923A-3139DBCB58D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66741582-9E51-499D-8536-191B204E9E3E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -931,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7">
-        <v>746</v>
+        <v>45253</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="I4" s="7">
-        <v>27535</v>
+        <v>72451</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="N4" s="7">
-        <v>28280</v>
+        <v>117705</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -982,49 +994,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>1326</v>
+        <v>6016</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>2057</v>
+        <v>12347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>3383</v>
+        <v>18362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1033,102 +1045,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>2072</v>
+        <v>51269</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="I6" s="7">
-        <v>29592</v>
+        <v>84798</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="N6" s="7">
-        <v>31663</v>
+        <v>136067</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="D7" s="7">
-        <v>13265</v>
+        <v>227990</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>199</v>
+        <v>564</v>
       </c>
       <c r="I7" s="7">
-        <v>100605</v>
+        <v>301304</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>211</v>
+        <v>872</v>
       </c>
       <c r="N7" s="7">
-        <v>113870</v>
+        <v>529293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1137,49 +1149,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>2273</v>
+        <v>28587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I8" s="7">
-        <v>9479</v>
+        <v>65009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="N8" s="7">
-        <v>11752</v>
+        <v>93596</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,102 +1200,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="D9" s="7">
-        <v>15538</v>
+        <v>256577</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>219</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>110084</v>
+        <v>366313</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>233</v>
+        <v>978</v>
       </c>
       <c r="N9" s="7">
-        <v>125622</v>
+        <v>622889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="D10" s="7">
-        <v>30968</v>
+        <v>333909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>290</v>
+        <v>763</v>
       </c>
       <c r="I10" s="7">
-        <v>178927</v>
+        <v>475459</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>310</v>
+        <v>1159</v>
       </c>
       <c r="N10" s="7">
-        <v>209896</v>
+        <v>809368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,49 +1304,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>5534</v>
+        <v>70957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="I11" s="7">
-        <v>18688</v>
+        <v>146267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="N11" s="7">
-        <v>24221</v>
+        <v>217224</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,102 +1355,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
+        <v>434</v>
       </c>
       <c r="D12" s="7">
-        <v>36502</v>
+        <v>404866</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>322</v>
+        <v>922</v>
       </c>
       <c r="I12" s="7">
-        <v>197615</v>
+        <v>621726</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>348</v>
+        <v>1356</v>
       </c>
       <c r="N12" s="7">
-        <v>234117</v>
+        <v>1026592</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="D13" s="7">
-        <v>24495</v>
+        <v>307688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>148</v>
+        <v>498</v>
       </c>
       <c r="I13" s="7">
-        <v>208842</v>
+        <v>437065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>163</v>
+        <v>822</v>
       </c>
       <c r="N13" s="7">
-        <v>233337</v>
+        <v>744752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1459,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>8472</v>
+        <v>55662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="I14" s="7">
-        <v>26417</v>
+        <v>118738</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="N14" s="7">
-        <v>34889</v>
+        <v>174401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,102 +1510,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="D15" s="7">
-        <v>32967</v>
+        <v>363350</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>187</v>
+        <v>632</v>
       </c>
       <c r="I15" s="7">
-        <v>235259</v>
+        <v>555803</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>208</v>
+        <v>978</v>
       </c>
       <c r="N15" s="7">
-        <v>268226</v>
+        <v>919153</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>489</v>
       </c>
       <c r="D16" s="7">
-        <v>27909</v>
+        <v>399504</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>250</v>
+        <v>769</v>
       </c>
       <c r="I16" s="7">
-        <v>175767</v>
+        <v>503311</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>267</v>
+        <v>1258</v>
       </c>
       <c r="N16" s="7">
-        <v>203676</v>
+        <v>902815</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1614,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>8567</v>
+        <v>61146</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="I17" s="7">
-        <v>42613</v>
+        <v>179170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="N17" s="7">
-        <v>51181</v>
+        <v>240315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,49 +1665,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>24</v>
+        <v>523</v>
       </c>
       <c r="D18" s="7">
-        <v>36476</v>
+        <v>460650</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>305</v>
+        <v>962</v>
       </c>
       <c r="I18" s="7">
-        <v>218380</v>
+        <v>682481</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>329</v>
+        <v>1485</v>
       </c>
       <c r="N18" s="7">
-        <v>254857</v>
+        <v>1143130</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,49 +1718,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>65</v>
+        <v>1582</v>
       </c>
       <c r="D19" s="7">
-        <v>97383</v>
+        <v>1314344</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>948</v>
+        <v>2749</v>
       </c>
       <c r="I19" s="7">
-        <v>691676</v>
+        <v>1789590</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1013</v>
+        <v>4331</v>
       </c>
       <c r="N19" s="7">
-        <v>789059</v>
+        <v>3103934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,49 +1769,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D20" s="7">
-        <v>26172</v>
+        <v>222367</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="I20" s="7">
-        <v>99254</v>
+        <v>521531</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>173</v>
+        <v>707</v>
       </c>
       <c r="N20" s="7">
-        <v>125426</v>
+        <v>743898</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,54 +1820,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>87</v>
+        <v>1693</v>
       </c>
       <c r="D21" s="7">
-        <v>123555</v>
+        <v>1536711</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1099</v>
+        <v>3345</v>
       </c>
       <c r="I21" s="7">
-        <v>790930</v>
+        <v>2311121</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1186</v>
+        <v>5038</v>
       </c>
       <c r="N21" s="7">
-        <v>914485</v>
+        <v>3847832</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6AD186A-F44B-4251-8CC9-0C3A9CD1B584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C115A1E9-59D0-4DED-AF91-5EDDE840F406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F404F3F1-B1A2-46E0-81D9-A947573AFDC4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3003DBBD-65CA-400F-AD24-CA91A836B14D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Población según si la persona sustentadora principal ha trabajado anteriormente en 2023 (Tasa respuesta: 57,62%)</t>
   </si>
@@ -65,352 +65,283 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +756,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66741582-9E51-499D-8536-191B204E9E3E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9746D68-9BB0-4E9D-9B23-AD51D21CA166}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>65</v>
+        <v>373</v>
       </c>
       <c r="D4" s="7">
-        <v>45253</v>
+        <v>265538</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>155</v>
+        <v>719</v>
       </c>
       <c r="I4" s="7">
-        <v>72451</v>
+        <v>349465</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>220</v>
+        <v>1092</v>
       </c>
       <c r="N4" s="7">
-        <v>117705</v>
+        <v>615003</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>6016</v>
+        <v>36316</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I5" s="7">
-        <v>12347</v>
+        <v>69766</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="N5" s="7">
-        <v>18362</v>
+        <v>106082</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>68</v>
+        <v>390</v>
       </c>
       <c r="D6" s="7">
-        <v>51269</v>
+        <v>301854</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>829</v>
       </c>
       <c r="I6" s="7">
-        <v>84798</v>
+        <v>419231</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>241</v>
+        <v>1219</v>
       </c>
       <c r="N6" s="7">
-        <v>136067</v>
+        <v>721085</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>308</v>
+        <v>396</v>
       </c>
       <c r="D7" s="7">
-        <v>227990</v>
+        <v>315139</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>564</v>
+        <v>763</v>
       </c>
       <c r="I7" s="7">
-        <v>301304</v>
+        <v>433235</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1059,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>872</v>
+        <v>1159</v>
       </c>
       <c r="N7" s="7">
-        <v>529293</v>
+        <v>748373</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1080,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7">
-        <v>28587</v>
+        <v>70373</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1095,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>65009</v>
+        <v>128068</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1110,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="N8" s="7">
-        <v>93596</v>
+        <v>198441</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>322</v>
+        <v>434</v>
       </c>
       <c r="D9" s="7">
-        <v>256577</v>
+        <v>385512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1146,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>656</v>
+        <v>922</v>
       </c>
       <c r="I9" s="7">
-        <v>366313</v>
+        <v>561303</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1161,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>978</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>622889</v>
+        <v>946814</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="D10" s="7">
-        <v>333909</v>
+        <v>289698</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,34 +1199,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>763</v>
+        <v>498</v>
       </c>
       <c r="I10" s="7">
-        <v>475459</v>
+        <v>508021</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>822</v>
+      </c>
+      <c r="N10" s="7">
+        <v>797719</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>1159</v>
-      </c>
-      <c r="N10" s="7">
-        <v>809368</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,49 +1235,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>70957</v>
+        <v>61139</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>134</v>
+      </c>
+      <c r="I11" s="7">
+        <v>107248</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>159</v>
-      </c>
-      <c r="I11" s="7">
-        <v>146267</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>156</v>
+      </c>
+      <c r="N11" s="7">
+        <v>168386</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>197</v>
-      </c>
-      <c r="N11" s="7">
-        <v>217224</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="D12" s="7">
-        <v>404866</v>
+        <v>350837</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1301,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>922</v>
+        <v>632</v>
       </c>
       <c r="I12" s="7">
-        <v>621726</v>
+        <v>615269</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1316,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>978</v>
       </c>
       <c r="N12" s="7">
-        <v>1026592</v>
+        <v>966105</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,55 +1333,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>324</v>
+        <v>489</v>
       </c>
       <c r="D13" s="7">
-        <v>307688</v>
+        <v>381495</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="7">
+        <v>769</v>
+      </c>
+      <c r="I13" s="7">
+        <v>456094</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1258</v>
+      </c>
+      <c r="N13" s="7">
+        <v>837589</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>498</v>
-      </c>
-      <c r="I13" s="7">
-        <v>437065</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="7">
-        <v>822</v>
-      </c>
-      <c r="N13" s="7">
-        <v>744752</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>55662</v>
+        <v>63751</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
+        <v>193</v>
+      </c>
+      <c r="I14" s="7">
+        <v>154084</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>227</v>
+      </c>
+      <c r="N14" s="7">
+        <v>217835</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>134</v>
-      </c>
-      <c r="I14" s="7">
-        <v>118738</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="7">
-        <v>156</v>
-      </c>
-      <c r="N14" s="7">
-        <v>174401</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>346</v>
+        <v>523</v>
       </c>
       <c r="D15" s="7">
-        <v>363350</v>
+        <v>445246</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>632</v>
+        <v>962</v>
       </c>
       <c r="I15" s="7">
-        <v>555803</v>
+        <v>610178</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1471,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>978</v>
+        <v>1485</v>
       </c>
       <c r="N15" s="7">
-        <v>919153</v>
+        <v>1055424</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1488,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>489</v>
+        <v>1582</v>
       </c>
       <c r="D16" s="7">
-        <v>399504</v>
+        <v>1251869</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2749</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1746814</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4331</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2998684</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>769</v>
-      </c>
-      <c r="I16" s="7">
-        <v>503311</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1258</v>
-      </c>
-      <c r="N16" s="7">
-        <v>902815</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1545,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D17" s="7">
-        <v>61146</v>
+        <v>231579</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>596</v>
+      </c>
+      <c r="I17" s="7">
+        <v>459166</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>707</v>
+      </c>
+      <c r="N17" s="7">
+        <v>690744</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>193</v>
-      </c>
-      <c r="I17" s="7">
-        <v>179170</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>227</v>
-      </c>
-      <c r="N17" s="7">
-        <v>240315</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1596,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>523</v>
+        <v>1693</v>
       </c>
       <c r="D18" s="7">
-        <v>460650</v>
+        <v>1483448</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1611,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>962</v>
+        <v>3345</v>
       </c>
       <c r="I18" s="7">
-        <v>682481</v>
+        <v>2205980</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1626,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1485</v>
+        <v>5038</v>
       </c>
       <c r="N18" s="7">
-        <v>1143130</v>
+        <v>3689428</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1642,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1582</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1314344</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2749</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1789590</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4331</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3103934</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>111</v>
-      </c>
-      <c r="D20" s="7">
-        <v>222367</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>596</v>
-      </c>
-      <c r="I20" s="7">
-        <v>521531</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>707</v>
-      </c>
-      <c r="N20" s="7">
-        <v>743898</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1693</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1536711</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3345</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2311121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5038</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3847832</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
